--- a/doc/coef_values_v3.2_livestock_biomass_included.xlsx
+++ b/doc/coef_values_v3.2_livestock_biomass_included.xlsx
@@ -83,13 +83,13 @@
     <t>Zero-Inflated (Logistic)</t>
   </si>
   <si>
-    <t>GDP (dollars per capita)</t>
-  </si>
-  <si>
-    <t>Tourism - Inbound (per capita)</t>
-  </si>
-  <si>
-    <t>ProMed Mentions (per capita)</t>
+    <t>ln(GDP [dollars per capita])</t>
+  </si>
+  <si>
+    <t>ln(Tourism - Inbound [per capita])</t>
+  </si>
+  <si>
+    <t>ln(ProMed Mentions [per capita])</t>
   </si>
   <si>
     <t>Human AB Consumption (DDD)</t>
@@ -101,22 +101,22 @@
     <t>Health Expenditure (% GDP)</t>
   </si>
   <si>
-    <t>Publication Bias Index (per capita)</t>
-  </si>
-  <si>
-    <t>AB Exports (dollars per capita)</t>
-  </si>
-  <si>
-    <t>Livestock AB Consumption (per PCU)</t>
-  </si>
-  <si>
-    <t>Migrant Population (per capita)</t>
-  </si>
-  <si>
-    <t>Livestock Population (PCU)</t>
-  </si>
-  <si>
-    <t>Population</t>
+    <t>ln(Publication Bias Index [per capita])</t>
+  </si>
+  <si>
+    <t>ln(AB Exports [dollars per capita])</t>
+  </si>
+  <si>
+    <t>ln(Livestock AB Consumption [per PCU])</t>
+  </si>
+  <si>
+    <t>ln(Migrant Population [per capita])</t>
+  </si>
+  <si>
+    <t>ln(Livestock Population [PCU])</t>
+  </si>
+  <si>
+    <t>ln(Population)</t>
   </si>
   <si>
     <t>1.3 (1-1.6)*</t>

--- a/doc/coef_values_v3.2_livestock_biomass_included.xlsx
+++ b/doc/coef_values_v3.2_livestock_biomass_included.xlsx
@@ -83,13 +83,13 @@
     <t>Zero-Inflated (Logistic)</t>
   </si>
   <si>
-    <t>ln(GDP [dollars per capita])</t>
-  </si>
-  <si>
-    <t>ln(Tourism - Inbound [per capita])</t>
-  </si>
-  <si>
-    <t>ln(ProMed Mentions [per capita])</t>
+    <t>ln(GDP [dollars per cap.])</t>
+  </si>
+  <si>
+    <t>ln(Tourism - Inbound [per cap.])</t>
+  </si>
+  <si>
+    <t>ln(ProMed Mentions [per cap.])</t>
   </si>
   <si>
     <t>Human AB Consumption (DDD)</t>
@@ -101,16 +101,16 @@
     <t>Health Expenditure (% GDP)</t>
   </si>
   <si>
-    <t>ln(Publication Bias Index [per capita])</t>
-  </si>
-  <si>
-    <t>ln(AB Exports [dollars per capita])</t>
+    <t>ln(Publication Bias Index [per cap.])</t>
+  </si>
+  <si>
+    <t>ln(AB Exports [dollars per cap.])</t>
   </si>
   <si>
     <t>ln(Livestock AB Consumption [per PCU])</t>
   </si>
   <si>
-    <t>ln(Migrant Population [per capita])</t>
+    <t>ln(Migrant Population [per cap.])</t>
   </si>
   <si>
     <t>ln(Livestock Population [PCU])</t>

--- a/doc/coef_values_v3.2_livestock_biomass_included.xlsx
+++ b/doc/coef_values_v3.2_livestock_biomass_included.xlsx
@@ -83,13 +83,13 @@
     <t>Zero-Inflated (Logistic)</t>
   </si>
   <si>
-    <t>ln(GDP [dollars per cap.])</t>
-  </si>
-  <si>
-    <t>ln(Tourism - Inbound [per cap.])</t>
-  </si>
-  <si>
-    <t>ln(ProMed Mentions [per cap.])</t>
+    <t>GDP (log dollars per cap)</t>
+  </si>
+  <si>
+    <t>Tourism - Inbound (log per cap)</t>
+  </si>
+  <si>
+    <t>ProMed Mentions (log per cap)</t>
   </si>
   <si>
     <t>Human AB Consumption (DDD)</t>
@@ -101,22 +101,22 @@
     <t>Health Expenditure (% GDP)</t>
   </si>
   <si>
-    <t>ln(Publication Bias Index [per cap.])</t>
-  </si>
-  <si>
-    <t>ln(AB Exports [dollars per cap.])</t>
-  </si>
-  <si>
-    <t>ln(Livestock AB Consumption [per PCU])</t>
-  </si>
-  <si>
-    <t>ln(Migrant Population [per cap.])</t>
-  </si>
-  <si>
-    <t>ln(Livestock Population [PCU])</t>
-  </si>
-  <si>
-    <t>ln(Population)</t>
+    <t>Publication Bias Index (log per cap)</t>
+  </si>
+  <si>
+    <t>AB Exports (log dollars per cap)</t>
+  </si>
+  <si>
+    <t>Livestock AB Consumption (log kg per PCU)</t>
+  </si>
+  <si>
+    <t>Migrant Population (log per cap)</t>
+  </si>
+  <si>
+    <t>Livestock Population (log PCU)</t>
+  </si>
+  <si>
+    <t>Population (log)</t>
   </si>
   <si>
     <t>1.3 (1-1.6)*</t>
